--- a/Gantt chart - not done.xlsx
+++ b/Gantt chart - not done.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>tasks</t>
   </si>
@@ -61,6 +61,9 @@
   </si>
   <si>
     <t>Everyone</t>
+  </si>
+  <si>
+    <t>Css</t>
   </si>
 </sst>
 </file>
@@ -145,6 +148,109 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>217714</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>27214</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="34" name="Elbow Connector 33"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="2476500" y="571500"/>
+          <a:ext cx="217714" cy="217714"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 0"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>217714</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>27214</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="35" name="Elbow Connector 34"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="3088821" y="762000"/>
+          <a:ext cx="217714" cy="217714"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 0"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -436,8 +542,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -575,6 +681,14 @@
       <c r="Q6" s="5"/>
       <c r="R6" s="5"/>
       <c r="S6" s="5"/>
+      <c r="T6" s="2"/>
+      <c r="U6" s="2"/>
+      <c r="V6" s="2"/>
+      <c r="W6" s="2"/>
+      <c r="X6" s="2"/>
+      <c r="Y6" s="2"/>
+      <c r="Z6" s="2"/>
+      <c r="AA6" s="2"/>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -598,6 +712,9 @@
     <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>8</v>
+      </c>
+      <c r="B8">
+        <v>150</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
@@ -614,6 +731,7 @@
       <c r="Q8" s="1"/>
       <c r="R8" s="1"/>
       <c r="S8" s="1"/>
+      <c r="T8" s="1"/>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -629,6 +747,18 @@
       <c r="L9" s="4"/>
       <c r="M9" s="4"/>
     </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="U10" s="1"/>
+      <c r="V10" s="1"/>
+      <c r="W10" s="1"/>
+      <c r="X10" s="1"/>
+      <c r="Y10" s="1"/>
+      <c r="Z10" s="1"/>
+      <c r="AA10" s="1"/>
+    </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
@@ -661,6 +791,7 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
